--- a/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
+++ b/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstrassner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstrassner/repo/inferno/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD39647-EE5F-8E4E-B1E4-8F237B34CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F2BFA5-CC96-5147-B31D-6520D8749380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3280" windowWidth="47560" windowHeight="20620" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="560" yWindow="3280" windowWidth="47560" windowHeight="20620" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -399,431 +399,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ID*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The unique identifier for the requirement. IDs are short, meaningless (they do not contain context like section numbers), and numeric. An approach is incrementing integers. See below for how to handle IDs for child requirements.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: ID -&gt; Requirements.statement.key
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">URL*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The URL of the deepest section that contains the requirement. The URL provides context for the requirement text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: URL -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Requirements.statement.reference
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Requirement*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A direct quote from the IG. Add any clarifications or interpretations in a helper column like the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test Plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> column. May include helpful context in square brackets.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Requirement -&gt; Requirements.statement.requirement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conformance*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The conformance verb of the requirement: SHALL, SHOULD, MAY, SHOULD NOT, SHALL NOT and DEPRECATED (see </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Further Consideration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> below for when to use DEPRECATED).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Conformance -&gt; Requirements.statement.conformance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Actor*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The actor, or actors, that the requirement constrains. The values will depend on the target specification, e.g., for Subscriptions (https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/actors.html), Client and Server.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Actor -&gt; Requirements.actor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sub-requirement(s)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The requirement set id and requirement id OR just the requiremnt set id (if all requirements referenced) of external requirements that are referenced by this requirement. This column will only be used when this requirements document points to requirements from a different requirement set.  For example, the HTI-2 g(30) criteria references PDex IG requirements. When creating the requirements for the g(30) test kit, the PDex requirement set id will be noted in this column for the g(30) requirement(s) that reference PDex.
-Format: &lt;requirement set id&gt;@&lt;requirement id&gt;. E.g., the requirement set with id "hl7.fhir.us.davinci-drug-formulary_2.0.1" and requirement id "40" would get referenced by "hl7.fhir.us.davinci-drug-formulary_2.0.1@40"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Sub-requirements -&gt; Requirements.statement.parent
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conditionality
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Whether or not the requirement is conditional on a prerequisite clause. An example of a conditional requirement is, "If the value is X, then the server SHALL do Y." Note: A blank value carries no information and does not indicate if </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conditionality</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is true or false.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: Conditionality -&gt; Requirements.statement.conditionality.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verifiable?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A determination as to whether this requirement can be verified:: 'No' - the requirement cannot be verified, e.g., because it is not specific enough; 'Yes' - the requirement can be verified using mechanical means or an attestation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Verifiability Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Details explaining the answer in the Verifiable? column, typically providing a rationale for why a given requirement will not be tested.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Planning To Test?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A determination as to whether this requirement will be tested. It might not be tested because it conflicts with another requirement or because it is a MAY requirement without any sub requirements.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Mapping: none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Planning To Test Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Details explaining the answer in the Planning To Test? column, typically providing a rationale for why a given requirement will not be tested.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mapping: none</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="14"/>
@@ -2108,6 +1683,102 @@
     <t>[Servers **SHALL** support the Subscription Delete interaction]</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-pas_2.0.1</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Da Vinci Prior Authorization Support (PAS) FHIR IG Requirements</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright Label</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-pas/STU2/</t>
+  </si>
+  <si>
+    <t>Actors</t>
+  </si>
+  <si>
+    <t>Client: "Client systems are typically Electronic Medical Record (EMR) systems but could theoretically be any system responsible for requesting prior authorizations . (E.g. practice management systems, pharmacy systems (for drugs that are part of a medical benefit), dental systems, etc.)"</t>
+  </si>
+  <si>
+    <t>Server: "Server systems (or servers) are typically intermediary systems that act on behalf of payer organizations and are responsible for the conversion of prior authorization requests to and from X12 for subsequent relay to payer systems. In some cases, a server system may directly be a payer system (if X12 translation is not required by regulation)." For the purposes of these requirements, Servers also include payer systems that provide the FHIR server component with X12 data and business logic.</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Summary of changes</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>&lt;your name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;your email&gt;</t>
+  </si>
+  <si>
+    <t>Initial input of requirements</t>
+  </si>
+  <si>
+    <t>Conformance</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>ATTESTATION</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>OUT OF SCOPE</t>
+  </si>
+  <si>
+    <t>Duplicate of 29</t>
+  </si>
+  <si>
+    <t>Unclear the purpose of these diagrams. It might be to highlight error cases, but not clear enough to extract requirements from.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Metadata
 </t>
@@ -2161,7 +1832,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1_reqs".
+      <t xml:space="preserve">The requirement set ID. This should be the namespace without version information. See the Info tab for details. For example, for the Da Vinci Drug Formulary v2.0.1, it would be  "hl7.fhir.us.davinci-drug-formulary_2.0.1".
 </t>
     </r>
     <r>
@@ -2318,100 +1989,436 @@
     </r>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>hl7.fhir.us.davinci-pas_2.0.1</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Da Vinci Prior Authorization Support (PAS) FHIR IG Requirements</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Copyright Label</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/us/davinci-pas/STU2/</t>
-  </si>
-  <si>
-    <t>Actors</t>
-  </si>
-  <si>
-    <t>Client: "Client systems are typically Electronic Medical Record (EMR) systems but could theoretically be any system responsible for requesting prior authorizations . (E.g. practice management systems, pharmacy systems (for drugs that are part of a medical benefit), dental systems, etc.)"</t>
-  </si>
-  <si>
-    <t>Server: "Server systems (or servers) are typically intermediary systems that act on behalf of payer organizations and are responsible for the conversion of prior authorization requests to and from X12 for subsequent relay to payer systems. In some cases, a server system may directly be a payer system (if X12 translation is not required by regulation)." For the purposes of these requirements, Servers also include payer systems that provide the FHIR server component with X12 data and business logic.</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Summary of changes</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>&lt;your name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;your email&gt;</t>
-  </si>
-  <si>
-    <t>Initial input of requirements</t>
-  </si>
-  <si>
-    <t>Conformance</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>ATTESTATION</t>
-  </si>
-  <si>
-    <t>AUTOMATION</t>
-  </si>
-  <si>
-    <t>OUT OF SCOPE</t>
-  </si>
-  <si>
-    <t>Duplicate of 29</t>
-  </si>
-  <si>
-    <t>Unclear the purpose of these diagrams. It might be to highlight error cases, but not clear enough to extract requirements from.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The unique identifier for the requirement. IDs are short, meaningless (they do not contain context like section numbers), and numeric. An approach is incrementing integers. See below for how to handle IDs for child requirements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: ID -&gt; Requirements.statement.key
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">URL*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The URL of the deepest section that contains the requirement. The URL provides context for the requirement text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: URL -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Requirements.statement.reference
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Requirement*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A direct quote from the IG. Add any clarifications or interpretations in a helper column like the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column. May include helpful context in square brackets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Requirement -&gt; Requirements.statement.requirement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conformance*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The conformance verb of the requirement: SHALL, SHOULD, MAY, SHOULD NOT, SHALL NOT and DEPRECATED (see </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Further Consideration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below for when to use DEPRECATED).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Conformance -&gt; Requirements.statement.conformance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actor*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The actor, or actors, that the requirement constrains. The values will depend on the target specification, e.g., for Subscriptions (https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/actors.html), Client and Server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Actor -&gt; Requirements.actor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sub-requirement(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The requirement set id and requirement id(s) of external requirements that are referenced by this requirement. This column will only be used when this requirements document points to requirements from a different requirement set.  For example, PDex references US Core. When creating the requirements for the PDex test kit, the US Core requirement set id will be noted in this column for the PDex requirement(s) that reference US Core.
+Format: &lt;requirement set id&gt;@&lt;list of requirement ids and ranges&gt;. E.g., the requirement set with id "hl7.fhir.us.davinci-drug-formulary_2.0.1" and requirement id "40", "41", "42", and "50"  would get referenced by "hl7.fhir.us.davinci-drug-formulary_2.0.1@40-42,50"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Sub-requirements -&gt; Requirements.statement.parent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conditionality
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Whether or not the requirement is conditional on a prerequisite clause. An example of a conditional requirement is, "If the value is X, then the server SHALL do Y." Note: A blank value carries no information and does not indicate if </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conditionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is true or false.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: Conditionality -&gt; Requirements.statement.conditionality.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verifiable?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A determination as to whether this requirement can be verified:: 'No' - the requirement cannot be verified, e.g., because it is not specific enough; 'Yes' - the requirement can be verified using mechanical means or an attestation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verifiability Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Details explaining the answer in the Verifiable? column, typically providing a rationale for why a given requirement will not be tested.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planning To Test?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A determination as to whether this requirement will be tested. It might not be tested because it conflicts with another requirement or because it is a MAY requirement without any sub requirements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mapping: none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planning To Test Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Details explaining the answer in the Planning To Test? column, typically providing a rationale for why a given requirement will not be tested.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapping: none</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3262,9 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA7094-ECFF-0B4E-A5C9-6F41B8D76EEB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3296,7 +3301,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3308,14 +3313,14 @@
     </row>
     <row r="6" spans="1:3" ht="164" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="46"/>
     </row>
@@ -3329,7 +3334,7 @@
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3349,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:AI341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3384,64 +3389,64 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="Y1" s="6"/>
     </row>
@@ -3450,23 +3455,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -3494,22 +3499,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3" s="9" t="str" cm="1">
         <f t="array" ref="M3">PAGE_NAME(B3)</f>
@@ -3535,22 +3540,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="9" t="str" cm="1">
         <f t="array" ref="M4">PAGE_NAME(B4)</f>
@@ -3573,22 +3578,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="9" t="str" cm="1">
         <f t="array" ref="M5">PAGE_NAME(B5)</f>
@@ -3611,16 +3616,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>0</v>
@@ -3646,16 +3651,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
@@ -3681,16 +3686,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>0</v>
@@ -3717,16 +3722,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>0</v>
@@ -3745,16 +3750,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="b">
         <v>0</v>
@@ -3773,16 +3778,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>0</v>
@@ -3801,16 +3806,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>0</v>
@@ -3829,31 +3834,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="K13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="L13" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="M13" s="9" t="str" cm="1">
         <f t="array" ref="M13">PAGE_NAME(B13)</f>
@@ -3869,31 +3874,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="K14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="L14" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="M14" s="9" t="str" cm="1">
         <f t="array" ref="M14">PAGE_NAME(B14)</f>
@@ -3909,31 +3914,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="M15" s="9" t="str" cm="1">
         <f t="array" ref="M15">PAGE_NAME(B15)</f>
@@ -3949,31 +3954,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="L16" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="M16" s="9" t="str" cm="1">
         <f t="array" ref="M16">PAGE_NAME(B16)</f>
@@ -3989,22 +3994,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" s="9" t="str" cm="1">
         <f t="array" ref="M17">PAGE_NAME(B17)</f>
@@ -4020,22 +4025,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G18" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
         <f t="array" ref="M18">PAGE_NAME(B18)</f>
@@ -4051,22 +4056,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M19" s="9" t="str" cm="1">
         <f t="array" ref="M19">PAGE_NAME(B19)</f>
@@ -4082,22 +4087,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M20" s="9" t="str" cm="1">
         <f t="array" ref="M20">PAGE_NAME(B20)</f>
@@ -4113,22 +4118,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="9" t="str" cm="1">
         <f t="array" ref="M21">PAGE_NAME(B21)</f>
@@ -4144,22 +4149,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M22" s="9" t="str" cm="1">
         <f t="array" ref="M22">PAGE_NAME(B22)</f>
@@ -4176,22 +4181,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23" s="9" t="str" cm="1">
         <f t="array" ref="M23">PAGE_NAME(B23)</f>
@@ -4207,22 +4212,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M24" s="9" t="str" cm="1">
         <f t="array" ref="M24">PAGE_NAME(B24)</f>
@@ -4238,22 +4243,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M25" s="9" t="str" cm="1">
         <f t="array" ref="M25">PAGE_NAME(B25)</f>
@@ -4269,22 +4274,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M26" s="9" t="str" cm="1">
         <f t="array" ref="M26">PAGE_NAME(B26)</f>
@@ -4300,22 +4305,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="9" t="str" cm="1">
         <f t="array" ref="M27">PAGE_NAME(B27)</f>
@@ -4331,22 +4336,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M28" s="9" t="str" cm="1">
         <f t="array" ref="M28">PAGE_NAME(B28)</f>
@@ -4362,22 +4367,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M29" s="9" t="str" cm="1">
         <f t="array" ref="M29">PAGE_NAME(B29)</f>
@@ -4393,22 +4398,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M30" s="9" t="str" cm="1">
         <f t="array" ref="M30">PAGE_NAME(B30)</f>
@@ -4424,22 +4429,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M31" s="9" t="str" cm="1">
         <f t="array" ref="M31">PAGE_NAME(B31)</f>
@@ -4450,7 +4455,7 @@
         <v/>
       </c>
       <c r="T31" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -4458,22 +4463,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(B32)</f>
@@ -4489,22 +4494,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="9" t="str" cm="1">
         <f t="array" ref="M33">PAGE_NAME(B33)</f>
@@ -4520,19 +4525,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
@@ -4551,19 +4556,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
@@ -4582,16 +4587,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G36" s="7" t="b">
         <v>0</v>
@@ -4610,16 +4615,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G37" s="7" t="b">
         <v>0</v>
@@ -4638,16 +4643,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>0</v>
@@ -4666,16 +4671,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>0</v>
@@ -4694,16 +4699,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
@@ -4722,16 +4727,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="7" t="b">
         <v>0</v>
@@ -4750,22 +4755,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
         <f t="array" ref="M42">PAGE_NAME(B42)</f>
@@ -4781,16 +4786,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G43" s="7" t="b">
         <v>0</v>
@@ -4809,22 +4814,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
         <f t="array" ref="M44">PAGE_NAME(B44)</f>
@@ -4840,16 +4845,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G45" s="7" t="b">
         <v>0</v>
@@ -4868,16 +4873,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="7" t="b">
         <v>0</v>
@@ -4896,16 +4901,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G47" s="7" t="b">
         <v>0</v>
@@ -4924,16 +4929,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
@@ -4952,16 +4957,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
@@ -4980,16 +4985,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>0</v>
@@ -5008,16 +5013,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>0</v>
@@ -5036,16 +5041,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="7" t="b">
         <v>0</v>
@@ -5064,16 +5069,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" s="7" t="b">
         <v>0</v>
@@ -5092,16 +5097,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>0</v>
@@ -5120,16 +5125,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="7" t="b">
         <v>0</v>
@@ -5148,16 +5153,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="7" t="b">
         <v>0</v>
@@ -5176,19 +5181,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
@@ -5207,19 +5212,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
@@ -5238,16 +5243,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
@@ -5266,16 +5271,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G60" s="7" t="b">
         <v>0</v>
@@ -5294,16 +5299,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G61" s="7" t="b">
         <v>0</v>
@@ -5322,16 +5327,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" s="7" t="b">
         <v>0</v>
@@ -5350,16 +5355,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" s="7" t="b">
         <v>0</v>
@@ -5378,16 +5383,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G64" s="7" t="b">
         <v>0</v>
@@ -5406,16 +5411,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G65" s="7" t="b">
         <v>0</v>
@@ -5434,16 +5439,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" s="7" t="b">
         <v>0</v>
@@ -5462,22 +5467,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G67" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -5493,22 +5498,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -5524,22 +5529,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -5555,22 +5560,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -5586,16 +5591,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>124</v>
-      </c>
       <c r="D71" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" s="7" t="b">
         <v>0</v>
@@ -5614,16 +5619,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" s="7" t="b">
         <v>0</v>
@@ -5642,16 +5647,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G73" s="7" t="b">
         <v>0</v>
@@ -5670,16 +5675,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74" s="7" t="b">
         <v>0</v>
@@ -5698,16 +5703,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" s="7" t="b">
         <v>0</v>
@@ -5726,16 +5731,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G76" s="7" t="b">
         <v>0</v>
@@ -5754,16 +5759,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" s="7" t="b">
         <v>0</v>
@@ -5782,22 +5787,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -5813,16 +5818,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G79" s="7" t="b">
         <v>0</v>
@@ -5841,16 +5846,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" s="7" t="b">
         <v>0</v>
@@ -5869,16 +5874,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G81" s="7" t="b">
         <v>0</v>
@@ -5897,16 +5902,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" s="7" t="b">
         <v>0</v>
@@ -5925,16 +5930,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" s="7" t="b">
         <v>0</v>
@@ -5953,16 +5958,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" s="7" t="b">
         <v>0</v>
@@ -5981,16 +5986,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" s="7" t="b">
         <v>0</v>
@@ -6009,16 +6014,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" s="7" t="b">
         <v>0</v>
@@ -6037,16 +6042,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87" s="7" t="b">
         <v>0</v>
@@ -6065,16 +6070,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88" s="7" t="b">
         <v>0</v>
@@ -6093,22 +6098,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -6124,22 +6129,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -6155,22 +6160,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M91" s="9" t="str" cm="1">
         <f t="array" ref="M91">PAGE_NAME(B91)</f>
@@ -6186,16 +6191,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G92" s="7" t="b">
         <v>0</v>
@@ -6214,16 +6219,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G93" s="7" t="b">
         <v>0</v>
@@ -6242,16 +6247,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G94" s="7" t="b">
         <v>0</v>
@@ -6270,16 +6275,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" s="7" t="b">
         <v>0</v>
@@ -6293,27 +6298,27 @@
         <v>prior-authorization-submission</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G96" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -6329,32 +6334,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I97" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K97" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K97" s="30" t="s">
+      <c r="L97" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="L97" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
@@ -6370,22 +6375,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G98" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -6401,16 +6406,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G99" s="7" t="b">
         <v>0</v>
@@ -6429,16 +6434,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="D100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="G100" s="7" t="b">
         <v>0</v>
@@ -6457,16 +6462,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G101" s="7" t="b">
         <v>0</v>
@@ -6485,16 +6490,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G102" s="7" t="b">
         <v>0</v>
@@ -6513,22 +6518,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -6544,22 +6549,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G104" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -6575,22 +6580,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G105" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -6606,22 +6611,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G106" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -6637,22 +6642,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -6668,16 +6673,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G108" s="7" t="b">
         <v>0</v>
@@ -6696,28 +6701,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J109" s="30" t="s">
-        <v>172</v>
-      </c>
       <c r="K109" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
@@ -6733,28 +6738,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J110" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K110" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
@@ -6770,16 +6775,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E111" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G111" s="7" t="b">
         <v>0</v>
@@ -6798,22 +6803,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G112" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -6829,22 +6834,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G113" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -6860,22 +6865,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -6883,22 +6888,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -6914,22 +6919,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D116" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G116" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
         <f t="array" ref="M116">PAGE_NAME(B116)</f>
@@ -6945,22 +6950,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="D117" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G117" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -6976,22 +6981,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
         <f t="array" ref="M118">PAGE_NAME(B118)</f>
@@ -7007,13 +7012,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -7024,7 +7029,7 @@
         <v>prior-authorization-workflow-diagrams</v>
       </c>
       <c r="T119" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7032,16 +7037,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="D120" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>0</v>
@@ -7060,22 +7065,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -7091,16 +7096,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122" s="7" t="b">
         <v>0</v>
@@ -7119,16 +7124,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" s="7" t="b">
         <v>0</v>
@@ -7147,16 +7152,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" s="7" t="b">
         <v>0</v>
@@ -7180,28 +7185,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L125" s="30" t="s">
         <v>197</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L125" s="30" t="s">
-        <v>198</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -7217,16 +7222,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G126" s="7" t="b">
         <v>0</v>
@@ -7245,16 +7250,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" s="7" t="b">
         <v>0</v>
@@ -7273,16 +7278,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G128" s="7" t="b">
         <v>0</v>
@@ -7301,16 +7306,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129" s="7" t="b">
         <v>0</v>
@@ -7329,16 +7334,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D130" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E130" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G130" s="7" t="b">
         <v>0</v>
@@ -7357,16 +7362,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G131" s="7" t="b">
         <v>0</v>
@@ -7385,16 +7390,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G132" s="7" t="b">
         <v>0</v>
@@ -7413,31 +7418,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E133" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G133" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H133" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K133" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L133" s="30" t="s">
         <v>207</v>
-      </c>
-      <c r="I133" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K133" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L133" s="30" t="s">
-        <v>208</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
         <f t="array" ref="M133">PAGE_NAME(B133)</f>
@@ -7453,22 +7458,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D134" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E134" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G134" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
         <f t="array" ref="M134">PAGE_NAME(B134)</f>
@@ -7479,7 +7484,7 @@
         <v>prior-authorization-inquiries</v>
       </c>
       <c r="T134" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -7487,22 +7492,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G135" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
         <f t="array" ref="M135">PAGE_NAME(B135)</f>
@@ -7518,22 +7523,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(B136)</f>
@@ -7549,22 +7554,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="D137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E137" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G137" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(B137)</f>
@@ -7580,16 +7585,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G138" s="7" t="b">
         <v>0</v>
@@ -7608,16 +7613,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E139" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G139" s="7" t="b">
         <v>0</v>
@@ -7636,22 +7641,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E140" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G140" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -7667,16 +7672,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="D141" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141" s="7" t="b">
         <v>0</v>
@@ -7695,16 +7700,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E142" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G142" s="7" t="b">
         <v>0</v>
@@ -7723,16 +7728,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G143" s="7" t="b">
         <v>0</v>
@@ -7751,16 +7756,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" s="7" t="b">
         <v>0</v>
@@ -7779,16 +7784,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145" s="7" t="b">
         <v>0</v>
@@ -7807,16 +7812,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D146" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E146" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G146" s="7" t="b">
         <v>0</v>
@@ -7835,16 +7840,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" s="7" t="b">
         <v>0</v>
@@ -7863,16 +7868,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" s="7" t="b">
         <v>0</v>
@@ -7891,16 +7896,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D149" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G149" s="7" t="b">
         <v>0</v>
@@ -7919,16 +7924,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D150" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G150" s="7" t="b">
         <v>0</v>
@@ -7947,16 +7952,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" s="7" t="b">
         <v>0</v>
@@ -7975,16 +7980,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G152" s="7" t="b">
         <v>0</v>
@@ -8003,16 +8008,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G153" s="7" t="b">
         <v>0</v>
@@ -8031,16 +8036,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" s="7" t="b">
         <v>0</v>
@@ -8059,16 +8064,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="D155" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" s="7" t="b">
         <v>0</v>
@@ -8087,16 +8092,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D156" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G156" s="7" t="b">
         <v>0</v>
@@ -8115,16 +8120,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="D157" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" s="7" t="b">
         <v>0</v>
@@ -8143,22 +8148,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M158" s="9" t="str" cm="1">
         <f t="array" ref="M158">PAGE_NAME(B158)</f>
@@ -8174,22 +8179,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G159" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -8205,22 +8210,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8228,22 +8233,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M161" s="9" t="str" cm="1">
         <f t="array" ref="M161">PAGE_NAME(B161)</f>
@@ -8259,22 +8264,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8282,22 +8287,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8305,22 +8310,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G164" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8328,22 +8333,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8351,22 +8356,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M166" s="9" t="str" cm="1">
         <f t="array" ref="M166">PAGE_NAME(B166)</f>
@@ -8382,22 +8387,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M167" s="9" t="str" cm="1">
         <f t="array" ref="M167">PAGE_NAME(B167)</f>
@@ -8413,22 +8418,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -8444,22 +8449,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M169" s="9" t="str" cm="1">
         <f t="array" ref="M169">PAGE_NAME(B169)</f>
@@ -8475,22 +8480,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G170" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M170" s="9" t="str" cm="1">
         <f t="array" ref="M170">PAGE_NAME(B170)</f>
@@ -8506,22 +8511,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G171" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M171" s="9" t="str" cm="1">
         <f t="array" ref="M171">PAGE_NAME(B171)</f>
@@ -8537,22 +8542,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M172" s="9" t="str" cm="1">
         <f t="array" ref="M172">PAGE_NAME(B172)</f>
@@ -8568,22 +8573,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M173" s="9" t="str" cm="1">
         <f t="array" ref="M173">PAGE_NAME(B173)</f>
@@ -8599,22 +8604,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G174" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -8630,22 +8635,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M175" s="9" t="str" cm="1">
         <f t="array" ref="M175">PAGE_NAME(B175)</f>
@@ -8661,22 +8666,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M176" s="9" t="str" cm="1">
         <f t="array" ref="M176">PAGE_NAME(B176)</f>
@@ -8692,22 +8697,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D177" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E177" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G177" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M177" s="9" t="str" cm="1">
         <f t="array" ref="M177">PAGE_NAME(B177)</f>
@@ -8723,22 +8728,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E178" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M178" s="9" t="str" cm="1">
         <f t="array" ref="M178">PAGE_NAME(B178)</f>
@@ -8754,22 +8759,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="D179" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M179" s="9" t="str" cm="1">
         <f t="array" ref="M179">PAGE_NAME(B179)</f>
@@ -8785,22 +8790,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M180" s="9" t="str" cm="1">
         <f t="array" ref="M180">PAGE_NAME(B180)</f>
@@ -8816,22 +8821,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D181" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E181" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G181" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M181" s="9" t="str" cm="1">
         <f t="array" ref="M181">PAGE_NAME(B181)</f>
@@ -8847,22 +8852,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D182" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E182" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M182" s="9" t="str" cm="1">
         <f t="array" ref="M182">PAGE_NAME(B182)</f>
@@ -8878,22 +8883,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D183" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E183" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G183" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -8909,22 +8914,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D184" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E184" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G184" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -8940,16 +8945,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" s="7" t="b">
         <v>0</v>
@@ -8968,16 +8973,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D186" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E186" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G186" s="7" t="b">
         <v>0</v>
@@ -8996,16 +9001,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="D187" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" s="7" t="b">
         <v>0</v>
@@ -9024,16 +9029,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G188" s="7" t="b">
         <v>0</v>
@@ -9052,16 +9057,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G189" s="7" t="b">
         <v>0</v>
@@ -9080,16 +9085,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D190" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E190" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G190" s="7" t="b">
         <v>0</v>
@@ -9108,16 +9113,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G191" s="7" t="b">
         <v>0</v>
@@ -9136,31 +9141,31 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G192" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H192" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I192" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K192" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L192" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="I192" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K192" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L192" s="30" t="s">
-        <v>283</v>
       </c>
       <c r="M192" s="9" t="str" cm="1">
         <f t="array" ref="M192">PAGE_NAME(B192)</f>
@@ -9176,16 +9181,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G193" s="7" t="b">
         <v>0</v>
@@ -9204,16 +9209,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -9232,16 +9237,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G195" s="7" t="b">
         <v>0</v>
@@ -9260,16 +9265,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G196" s="7" t="b">
         <v>0</v>
@@ -9288,16 +9293,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D197" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G197" s="7" t="b">
         <v>0</v>
@@ -9316,16 +9321,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198" s="7" t="b">
         <v>0</v>
@@ -9344,16 +9349,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D199" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E199" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G199" s="7" t="b">
         <v>0</v>
@@ -9372,22 +9377,22 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="D200" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G200" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="M200" s="9" t="str" cm="1">
         <f t="array" ref="M200">PAGE_NAME(B200)</f>
@@ -9403,22 +9408,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="D201" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G201" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="M201" s="9" t="str" cm="1">
         <f t="array" ref="M201">PAGE_NAME(B201)</f>
@@ -9434,16 +9439,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="D202" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G202" s="7" t="b">
         <v>0</v>
@@ -9462,16 +9467,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C203" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="D203" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G203" s="7" t="b">
         <v>0</v>
@@ -9490,16 +9495,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G204" s="7" t="b">
         <v>0</v>
@@ -9518,16 +9523,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G205" s="7" t="b">
         <v>0</v>
@@ -9546,16 +9551,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G206" s="7" t="b">
         <v>0</v>
@@ -9574,16 +9579,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207" s="7" t="b">
         <v>0</v>
@@ -9602,16 +9607,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C208" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="D208" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G208" s="7" t="b">
         <v>0</v>
@@ -9630,16 +9635,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E209" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G209" s="7" t="b">
         <v>0</v>
@@ -9658,16 +9663,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D210" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E210" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G210" s="7" t="b">
         <v>0</v>
@@ -9686,16 +9691,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D211" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E211" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G211" s="7" t="b">
         <v>0</v>
@@ -9714,16 +9719,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" s="42" t="s">
         <v>30</v>
-      </c>
-      <c r="E212" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="G212" s="7" t="b">
         <v>0</v>
@@ -11143,7 +11148,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11154,7 +11159,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B1" s="48"/>
     </row>
@@ -11164,82 +11169,82 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -11270,19 +11275,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11290,13 +11295,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -11316,67 +11321,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -11639,15 +11644,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
@@ -11658,6 +11654,15 @@
     <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11681,14 +11686,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11704,4 +11701,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
+++ b/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstrassner/repo/inferno/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F2BFA5-CC96-5147-B31D-6520D8749380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE072E9-5295-0B4D-9CFC-88C2A1595C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3280" windowWidth="47560" windowHeight="20620" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="366">
   <si>
     <r>
       <rPr>
@@ -993,9 +993,6 @@
     <t>The HRex IG defines some [conformance expectations](http://hl7.org/fhir/us/davinci-hrex/conformance.html) that all Da Vinci IGs are expected to follow.</t>
   </si>
   <si>
-    <t>hl7.fhir.us.davinci-hrex_1.0.0@21-32</t>
-  </si>
-  <si>
     <t>PA Intermediary Systems **SHALL** be capable of processing all data elements that are marked as Must Support on the Claim Request</t>
   </si>
   <si>
@@ -1072,9 +1069,6 @@
   </si>
   <si>
     <t>[Servers] claiming conformance to this IG **SHALL** comply with the [Security and Privacy page in the Da Vinci HRex guide](http://hl7.org/fhir/us/davinci-hrex/security.html).</t>
-  </si>
-  <si>
-    <t>hl7.fhir.us.davinci-hrex_1.0.0@1-20</t>
   </si>
   <si>
     <t>[Clients] claiming conformance to this IG **SHALL** comply with the [Security and Privacy page in the Da Vinci HRex guide](http://hl7.org/fhir/us/davinci-hrex/security.html).</t>
@@ -2419,6 +2413,86 @@
       </rPr>
       <t>Mapping: none</t>
     </r>
+  </si>
+  <si>
+    <t>HRex security requirements are general and currently handled as attestation in other test kits, so not creating explicit subrequirements for this.</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/davinci-hrex/STU1/conformance.html</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … Data Sources **SHALL** be capable of populating the data element when sharing resources compliant with the profile. I.e. the system must be able to demonstrate the population and sharing of the element</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … it is acceptable to omit the [must support] element if the [data source] system doesn't have values in a particular instance.</t>
+  </si>
+  <si>
+    <t>If the source doesn't have data for the element</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … Data Consumers **SHALL** be capable of processing resource instances containing the data elements without generating an error or causing the application to fail.</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … [i]f the minimum cardinality of an element is greater than 0 – i.e. the element is ‘required’, then the element **SHALL** be present in the instance</t>
+  </si>
+  <si>
+    <t>If the minimum cardinality is &gt; 0</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] …  [i]f the minimum cardinality of an element is greater than 0 – i.e. the element is ‘required’, then the element ... **SHALL** have a value unless:
+- The profile explicitly declares the dataAbsentReason extension or other extension for the element, in which case an extension can be present in place of the value. [or]
+- The profile is inherited from U.S. Core, in which case a dataAbsentReason extension may be sent in place of the value even where dataAbsentReason is not explicitly declared in the profile.</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … Data Consumers **SHALL** interpret missing data elements within resource instances as data not being present in the Data Source’s systems or was not deemed to be shareable with the Data Consumer for privacy or other business reasons.</t>
+  </si>
+  <si>
+    <t>If the element is missing</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … [w]here the value set for an element includes concepts such as “unknown”, “refused to answer”, “not available” or where dataAbsentReason is explicitly referenced in a profile, then Data Sources **SHALL** use these values/that extension to communicate the reason for missing data.</t>
+  </si>
+  <si>
+    <t>When value sets include certain concepts</t>
+  </si>
+  <si>
+    <t>In the context of an HRex compliant IG, mustSupport on any data element **SHALL** be interpreted [to mean that] … Data Consumers **SHALL** be able to process resource instances containing data elements that have extensions in place of a value where such extensions are declared as part of the profile.</t>
+  </si>
+  <si>
+    <t>When extensions are used instead of a value</t>
+  </si>
+  <si>
+    <t>[Data sources] are free to include additional data [beyond the must support elements]</t>
+  </si>
+  <si>
+    <t>[R]eceivers **SHOULD NOT** reject instances that contain unexpected [non-must support] data elements if those elements are not [modifier elements](http://hl7.org/fhir/R4/conformance-rules.html#isModifier).</t>
+  </si>
+  <si>
+    <t>When non-must support elements present</t>
+  </si>
+  <si>
+    <t>[Data Sources] should be aware that they can't count on receivers storing, processing or doing anything other than ignoring data that is not marked as mustSupport.</t>
+  </si>
+  <si>
+    <t>When sending non must support elements</t>
+  </si>
+  <si>
+    <t>Can only be tested in the context of a specific trading partner</t>
+  </si>
+  <si>
+    <t>Many of the profiles in this guide reference other FHIR resources that are US Core profiles. This is defined in the formal profile definitions. For example, US Core Patient. For any other references not formally defined in a US Core profiles, the referenced resource **SHOULD** be a US Core profile if a US Core profile exists for the resource type.</t>
+  </si>
+  <si>
+    <t>When referencing US Core resource types</t>
+  </si>
+  <si>
+    <t>HRex not represented as a separate requirements set, so relevant requirements for PAS are included</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-pas_2.0.1@212,213,215,216,218,220,222,223</t>
+  </si>
+  <si>
+    <t>hl7.fhir.us.davinci-pas_2.0.1@214,217,219,221</t>
   </si>
 </sst>
 </file>
@@ -2818,7 +2892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2931,6 +3005,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3269,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA7094-ECFF-0B4E-A5C9-6F41B8D76EEB}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3301,7 +3381,7 @@
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3354,11 +3434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0272D98A-080C-3945-A7E0-CB54FB3A65A9}">
   <dimension ref="A1:AI341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4435,7 +4515,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>30</v>
@@ -4455,7 +4535,7 @@
         <v/>
       </c>
       <c r="T31" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -4520,7 +4600,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -4537,7 +4617,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
@@ -4568,7 +4648,7 @@
         <v>37</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
@@ -4590,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>29</v>
@@ -4618,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>29</v>
@@ -4646,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>29</v>
@@ -4674,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>29</v>
@@ -4702,7 +4782,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>29</v>
@@ -4730,7 +4810,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>29</v>
@@ -4758,10 +4838,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>37</v>
@@ -4770,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
         <f t="array" ref="M42">PAGE_NAME(B42)</f>
@@ -4789,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>36</v>
@@ -4817,7 +4897,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>44</v>
@@ -4829,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
         <f t="array" ref="M44">PAGE_NAME(B44)</f>
@@ -4845,10 +4925,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>29</v>
@@ -4873,10 +4953,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>29</v>
@@ -4901,10 +4981,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>29</v>
@@ -4929,10 +5009,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>29</v>
@@ -4952,15 +5032,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>29</v>
@@ -4980,15 +5060,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>29</v>
@@ -5008,15 +5088,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>47</v>
@@ -5036,15 +5116,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>47</v>
@@ -5064,15 +5144,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>47</v>
@@ -5092,15 +5172,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>47</v>
@@ -5120,15 +5200,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>47</v>
@@ -5148,15 +5228,15 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>47</v>
@@ -5176,24 +5256,21 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
@@ -5206,25 +5283,25 @@
         <f t="array" ref="N57">SECTION_NAME(B57)</f>
         <v>integration-with-other-implementation-guides</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="T57" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
@@ -5237,16 +5314,19 @@
         <f t="array" ref="N58">SECTION_NAME(B58)</f>
         <v>integration-with-other-implementation-guides</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="T58" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>29</v>
@@ -5266,15 +5346,15 @@
         <v>summary</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>29</v>
@@ -5294,15 +5374,15 @@
         <v>summary</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>29</v>
@@ -5322,15 +5402,15 @@
         <v>summary</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>29</v>
@@ -5350,15 +5430,15 @@
         <v>summary</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>29</v>
@@ -5378,15 +5458,15 @@
         <v>summary</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>29</v>
@@ -5411,10 +5491,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>29</v>
@@ -5439,10 +5519,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>47</v>
@@ -5467,10 +5547,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>29</v>
@@ -5482,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -5498,10 +5578,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>29</v>
@@ -5513,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -5529,10 +5609,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>44</v>
@@ -5544,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -5560,10 +5640,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>44</v>
@@ -5575,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -5591,10 +5671,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>29</v>
@@ -5619,10 +5699,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>29</v>
@@ -5647,10 +5727,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>29</v>
@@ -5675,10 +5755,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>44</v>
@@ -5703,10 +5783,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>29</v>
@@ -5731,10 +5811,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>29</v>
@@ -5759,10 +5839,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>29</v>
@@ -5787,10 +5867,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>29</v>
@@ -5802,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -5818,10 +5898,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>29</v>
@@ -5846,10 +5926,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>29</v>
@@ -5874,10 +5954,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>29</v>
@@ -5902,10 +5982,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>29</v>
@@ -5930,10 +6010,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>29</v>
@@ -5958,10 +6038,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>29</v>
@@ -5986,10 +6066,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>47</v>
@@ -6014,10 +6094,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>29</v>
@@ -6042,10 +6122,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>29</v>
@@ -6070,10 +6150,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>44</v>
@@ -6098,10 +6178,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>47</v>
@@ -6113,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -6129,10 +6209,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>29</v>
@@ -6144,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -6160,10 +6240,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>44</v>
@@ -6175,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M91" s="9" t="str" cm="1">
         <f t="array" ref="M91">PAGE_NAME(B91)</f>
@@ -6191,10 +6271,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>29</v>
@@ -6219,10 +6299,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>29</v>
@@ -6247,10 +6327,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>29</v>
@@ -6275,10 +6355,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>44</v>
@@ -6303,10 +6383,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>29</v>
@@ -6318,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -6334,10 +6414,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>29</v>
@@ -6350,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I97" s="30" t="s">
         <v>54</v>
@@ -6375,10 +6455,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>29</v>
@@ -6390,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -6406,10 +6486,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>29</v>
@@ -6434,10 +6514,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>29</v>
@@ -6462,10 +6542,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>29</v>
@@ -6490,10 +6570,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>29</v>
@@ -6518,10 +6598,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>29</v>
@@ -6533,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -6549,10 +6629,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>29</v>
@@ -6564,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -6580,10 +6660,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>29</v>
@@ -6595,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -6611,10 +6691,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>29</v>
@@ -6626,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -6642,13 +6722,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>30</v>
@@ -6657,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -6673,10 +6753,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>29</v>
@@ -6701,10 +6781,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>47</v>
@@ -6719,7 +6799,7 @@
         <v>55</v>
       </c>
       <c r="J109" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K109" s="30" t="s">
         <v>55</v>
@@ -6738,10 +6818,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>47</v>
@@ -6756,7 +6836,7 @@
         <v>55</v>
       </c>
       <c r="J110" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K110" s="30" t="s">
         <v>55</v>
@@ -6775,10 +6855,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>29</v>
@@ -6803,10 +6883,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>29</v>
@@ -6818,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -6834,10 +6914,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>29</v>
@@ -6849,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -6865,10 +6945,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>29</v>
@@ -6880,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -6888,10 +6968,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>29</v>
@@ -6903,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -6919,10 +6999,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>29</v>
@@ -6934,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
         <f t="array" ref="M116">PAGE_NAME(B116)</f>
@@ -6950,10 +7030,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>44</v>
@@ -6965,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -6981,10 +7061,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>47</v>
@@ -6996,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
         <f t="array" ref="M118">PAGE_NAME(B118)</f>
@@ -7012,13 +7092,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -7029,7 +7109,7 @@
         <v>prior-authorization-workflow-diagrams</v>
       </c>
       <c r="T119" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7037,10 +7117,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>29</v>
@@ -7065,10 +7145,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>29</v>
@@ -7080,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -7096,10 +7176,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>29</v>
@@ -7124,10 +7204,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>29</v>
@@ -7152,10 +7232,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>29</v>
@@ -7185,10 +7265,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>29</v>
@@ -7206,7 +7286,7 @@
         <v>55</v>
       </c>
       <c r="L125" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -7222,10 +7302,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>29</v>
@@ -7250,10 +7330,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>29</v>
@@ -7278,10 +7358,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>29</v>
@@ -7306,13 +7386,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>37</v>
@@ -7334,10 +7414,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>29</v>
@@ -7362,10 +7442,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>29</v>
@@ -7390,10 +7470,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>29</v>
@@ -7418,10 +7498,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>29</v>
@@ -7433,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="H133" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I133" s="30" t="s">
         <v>54</v>
@@ -7442,7 +7522,7 @@
         <v>55</v>
       </c>
       <c r="L133" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
         <f t="array" ref="M133">PAGE_NAME(B133)</f>
@@ -7458,10 +7538,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>29</v>
@@ -7473,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
         <f t="array" ref="M134">PAGE_NAME(B134)</f>
@@ -7484,7 +7564,7 @@
         <v>prior-authorization-inquiries</v>
       </c>
       <c r="T134" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -7492,10 +7572,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>44</v>
@@ -7507,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
         <f t="array" ref="M135">PAGE_NAME(B135)</f>
@@ -7523,10 +7603,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>47</v>
@@ -7538,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(B136)</f>
@@ -7554,10 +7634,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>29</v>
@@ -7569,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(B137)</f>
@@ -7585,10 +7665,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>29</v>
@@ -7613,10 +7693,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>29</v>
@@ -7641,10 +7721,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>29</v>
@@ -7656,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -7672,10 +7752,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>29</v>
@@ -7700,10 +7780,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>29</v>
@@ -7728,10 +7808,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>29</v>
@@ -7756,10 +7836,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>29</v>
@@ -7784,10 +7864,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>29</v>
@@ -7812,10 +7892,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>29</v>
@@ -7840,10 +7920,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>44</v>
@@ -7868,10 +7948,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>44</v>
@@ -7896,10 +7976,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>29</v>
@@ -7924,10 +8004,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>29</v>
@@ -7952,10 +8032,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>47</v>
@@ -7980,10 +8060,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>44</v>
@@ -8008,10 +8088,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>29</v>
@@ -8036,10 +8116,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>29</v>
@@ -8064,10 +8144,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>44</v>
@@ -8092,10 +8172,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>29</v>
@@ -8120,10 +8200,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>47</v>
@@ -8148,10 +8228,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>44</v>
@@ -8163,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M158" s="9" t="str" cm="1">
         <f t="array" ref="M158">PAGE_NAME(B158)</f>
@@ -8179,10 +8259,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>44</v>
@@ -8194,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -8210,10 +8290,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>29</v>
@@ -8225,7 +8305,7 @@
         <v>1</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8233,10 +8313,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>44</v>
@@ -8248,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M161" s="9" t="str" cm="1">
         <f t="array" ref="M161">PAGE_NAME(B161)</f>
@@ -8264,10 +8344,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>44</v>
@@ -8279,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8287,10 +8367,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>44</v>
@@ -8302,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8310,10 +8390,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>44</v>
@@ -8325,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8333,10 +8413,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>29</v>
@@ -8348,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8356,10 +8436,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>44</v>
@@ -8371,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M166" s="9" t="str" cm="1">
         <f t="array" ref="M166">PAGE_NAME(B166)</f>
@@ -8387,10 +8467,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>29</v>
@@ -8402,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M167" s="9" t="str" cm="1">
         <f t="array" ref="M167">PAGE_NAME(B167)</f>
@@ -8418,10 +8498,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>29</v>
@@ -8433,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -8449,10 +8529,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>29</v>
@@ -8464,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M169" s="9" t="str" cm="1">
         <f t="array" ref="M169">PAGE_NAME(B169)</f>
@@ -8480,10 +8560,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>29</v>
@@ -8495,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M170" s="9" t="str" cm="1">
         <f t="array" ref="M170">PAGE_NAME(B170)</f>
@@ -8511,10 +8591,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>29</v>
@@ -8526,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M171" s="9" t="str" cm="1">
         <f t="array" ref="M171">PAGE_NAME(B171)</f>
@@ -8542,10 +8622,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>29</v>
@@ -8557,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M172" s="9" t="str" cm="1">
         <f t="array" ref="M172">PAGE_NAME(B172)</f>
@@ -8573,10 +8653,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>29</v>
@@ -8588,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M173" s="9" t="str" cm="1">
         <f t="array" ref="M173">PAGE_NAME(B173)</f>
@@ -8604,10 +8684,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>29</v>
@@ -8619,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -8635,10 +8715,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>29</v>
@@ -8650,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M175" s="9" t="str" cm="1">
         <f t="array" ref="M175">PAGE_NAME(B175)</f>
@@ -8666,10 +8746,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>29</v>
@@ -8681,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M176" s="9" t="str" cm="1">
         <f t="array" ref="M176">PAGE_NAME(B176)</f>
@@ -8697,10 +8777,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>29</v>
@@ -8712,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M177" s="9" t="str" cm="1">
         <f t="array" ref="M177">PAGE_NAME(B177)</f>
@@ -8728,10 +8808,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>29</v>
@@ -8743,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M178" s="9" t="str" cm="1">
         <f t="array" ref="M178">PAGE_NAME(B178)</f>
@@ -8759,10 +8839,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>44</v>
@@ -8774,7 +8854,7 @@
         <v>1</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M179" s="9" t="str" cm="1">
         <f t="array" ref="M179">PAGE_NAME(B179)</f>
@@ -8790,10 +8870,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>44</v>
@@ -8805,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M180" s="9" t="str" cm="1">
         <f t="array" ref="M180">PAGE_NAME(B180)</f>
@@ -8821,10 +8901,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>29</v>
@@ -8836,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M181" s="9" t="str" cm="1">
         <f t="array" ref="M181">PAGE_NAME(B181)</f>
@@ -8852,10 +8932,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>29</v>
@@ -8867,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M182" s="9" t="str" cm="1">
         <f t="array" ref="M182">PAGE_NAME(B182)</f>
@@ -8883,10 +8963,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>29</v>
@@ -8898,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -8914,10 +8994,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>29</v>
@@ -8929,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -8945,10 +9025,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>29</v>
@@ -8973,10 +9053,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>29</v>
@@ -9001,10 +9081,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>29</v>
@@ -9029,10 +9109,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>29</v>
@@ -9057,13 +9137,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>37</v>
@@ -9085,10 +9165,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>29</v>
@@ -9113,10 +9193,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>29</v>
@@ -9141,10 +9221,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>47</v>
@@ -9156,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I192" s="30" t="s">
         <v>54</v>
@@ -9165,7 +9245,7 @@
         <v>55</v>
       </c>
       <c r="L192" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M192" s="9" t="str" cm="1">
         <f t="array" ref="M192">PAGE_NAME(B192)</f>
@@ -9181,10 +9261,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>47</v>
@@ -9209,10 +9289,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>44</v>
@@ -9237,10 +9317,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>29</v>
@@ -9265,10 +9345,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>29</v>
@@ -9293,10 +9373,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>29</v>
@@ -9321,10 +9401,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>29</v>
@@ -9349,10 +9429,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>29</v>
@@ -9377,10 +9457,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>29</v>
@@ -9392,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M200" s="9" t="str" cm="1">
         <f t="array" ref="M200">PAGE_NAME(B200)</f>
@@ -9408,10 +9488,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>29</v>
@@ -9423,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M201" s="9" t="str" cm="1">
         <f t="array" ref="M201">PAGE_NAME(B201)</f>
@@ -9439,16 +9519,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G202" s="7" t="b">
         <v>0</v>
@@ -9467,10 +9547,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>29</v>
@@ -9495,10 +9575,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>29</v>
@@ -9523,10 +9603,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>29</v>
@@ -9551,10 +9631,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>29</v>
@@ -9579,10 +9659,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>29</v>
@@ -9607,10 +9687,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>29</v>
@@ -9630,15 +9710,15 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C209" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>29</v>
@@ -9658,15 +9738,15 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>29</v>
@@ -9686,15 +9766,15 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>29</v>
@@ -9714,15 +9794,15 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>29</v>
@@ -9742,130 +9822,532 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M213" s="9" t="str" cm="1">
+    <row r="213" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A213" s="7">
+        <v>212</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213" s="16"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="30"/>
+      <c r="M213" s="49" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
-        <v/>
-      </c>
-      <c r="N213" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N213" s="49" t="str" cm="1">
         <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M214" s="9" t="str" cm="1">
+      <c r="O213" s="16"/>
+      <c r="P213" s="16"/>
+      <c r="Q213" s="16"/>
+      <c r="R213" s="16"/>
+      <c r="S213" s="16"/>
+      <c r="T213" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" s="50" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A214" s="7">
+        <v>213</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="I214" s="30"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="30"/>
+      <c r="L214" s="30"/>
+      <c r="M214" s="49" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
-        <v/>
-      </c>
-      <c r="N214" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N214" s="49" t="str" cm="1">
         <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M215" s="9" t="str" cm="1">
+      <c r="O214" s="16"/>
+      <c r="P214" s="16"/>
+      <c r="Q214" s="16"/>
+      <c r="R214" s="16"/>
+      <c r="S214" s="16"/>
+      <c r="T214" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" s="50" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A215" s="7">
+        <v>214</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H215" s="16"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="30"/>
+      <c r="L215" s="30"/>
+      <c r="M215" s="49" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
-        <v/>
-      </c>
-      <c r="N215" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N215" s="49" t="str" cm="1">
         <f t="array" ref="N215">SECTION_NAME(B215)</f>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M216" s="9" t="str" cm="1">
+      <c r="O215" s="16"/>
+      <c r="P215" s="16"/>
+      <c r="Q215" s="16"/>
+      <c r="R215" s="16"/>
+      <c r="S215" s="16"/>
+      <c r="T215" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" s="50" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A216" s="7">
+        <v>215</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+      <c r="M216" s="49" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
-        <v/>
-      </c>
-      <c r="N216" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N216" s="49" t="str" cm="1">
         <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M217" s="9" t="str" cm="1">
+      <c r="O216" s="16"/>
+      <c r="P216" s="16"/>
+      <c r="Q216" s="16"/>
+      <c r="R216" s="16"/>
+      <c r="S216" s="16"/>
+      <c r="T216" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" s="50" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A217" s="7">
+        <v>216</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="30"/>
+      <c r="M217" s="49" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
-        <v/>
-      </c>
-      <c r="N217" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N217" s="49" t="str" cm="1">
         <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="M218" s="9" t="str" cm="1">
+      <c r="O217" s="16"/>
+      <c r="P217" s="16"/>
+      <c r="Q217" s="16"/>
+      <c r="R217" s="16"/>
+      <c r="S217" s="16"/>
+      <c r="T217" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A218" s="7">
+        <v>217</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="30"/>
+      <c r="M218" s="49" t="str" cm="1">
         <f t="array" ref="M218">PAGE_NAME(B218)</f>
-        <v/>
-      </c>
-      <c r="N218" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N218" s="49" t="str" cm="1">
         <f t="array" ref="N218">SECTION_NAME(B218)</f>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B219" s="11"/>
-      <c r="M219" s="9" t="str" cm="1">
+      <c r="O218" s="16"/>
+      <c r="P218" s="16"/>
+      <c r="Q218" s="16"/>
+      <c r="R218" s="16"/>
+      <c r="S218" s="16"/>
+      <c r="T218" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" s="50" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A219" s="7">
+        <v>218</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30"/>
+      <c r="K219" s="30"/>
+      <c r="L219" s="30"/>
+      <c r="M219" s="49" t="str" cm="1">
         <f t="array" ref="M219">PAGE_NAME(B219)</f>
-        <v/>
-      </c>
-      <c r="N219" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N219" s="49" t="str" cm="1">
         <f t="array" ref="N219">SECTION_NAME(B219)</f>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B220" s="11"/>
-      <c r="M220" s="9" t="str" cm="1">
+      <c r="O219" s="16"/>
+      <c r="P219" s="16"/>
+      <c r="Q219" s="16"/>
+      <c r="R219" s="16"/>
+      <c r="S219" s="16"/>
+      <c r="T219" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" s="50" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A220" s="7">
+        <v>219</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="30"/>
+      <c r="M220" s="49" t="str" cm="1">
         <f t="array" ref="M220">PAGE_NAME(B220)</f>
-        <v/>
-      </c>
-      <c r="N220" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N220" s="49" t="str" cm="1">
         <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B221" s="11"/>
-      <c r="M221" s="9" t="str" cm="1">
+      <c r="O220" s="16"/>
+      <c r="P220" s="16"/>
+      <c r="Q220" s="16"/>
+      <c r="R220" s="16"/>
+      <c r="S220" s="16"/>
+      <c r="T220" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" s="50" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A221" s="7">
+        <v>220</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221" s="16"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="30"/>
+      <c r="M221" s="49" t="str" cm="1">
         <f t="array" ref="M221">PAGE_NAME(B221)</f>
-        <v/>
-      </c>
-      <c r="N221" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N221" s="49" t="str" cm="1">
         <f t="array" ref="N221">SECTION_NAME(B221)</f>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B222" s="11"/>
-      <c r="M222" s="9" t="str" cm="1">
+      <c r="O221" s="16"/>
+      <c r="P221" s="16"/>
+      <c r="Q221" s="16"/>
+      <c r="R221" s="16"/>
+      <c r="S221" s="16"/>
+      <c r="T221" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" s="50" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A222" s="7">
+        <v>221</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="I222" s="30"/>
+      <c r="J222" s="30"/>
+      <c r="K222" s="30"/>
+      <c r="L222" s="30"/>
+      <c r="M222" s="49" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
-        <v/>
-      </c>
-      <c r="N222" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N222" s="49" t="str" cm="1">
         <f t="array" ref="N222">SECTION_NAME(B222)</f>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B223" s="11"/>
-      <c r="M223" s="9" t="str" cm="1">
+      <c r="O222" s="16"/>
+      <c r="P222" s="16"/>
+      <c r="Q222" s="16"/>
+      <c r="R222" s="16"/>
+      <c r="S222" s="16"/>
+      <c r="T222" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" s="50" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A223" s="7">
+        <v>222</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="I223" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J223" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="K223" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L223" s="30"/>
+      <c r="M223" s="49" t="str" cm="1">
         <f t="array" ref="M223">PAGE_NAME(B223)</f>
-        <v/>
-      </c>
-      <c r="N223" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N223" s="49" t="str" cm="1">
         <f t="array" ref="N223">SECTION_NAME(B223)</f>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="B224" s="11"/>
-      <c r="M224" s="9" t="str" cm="1">
+      <c r="O223" s="16"/>
+      <c r="P223" s="16"/>
+      <c r="Q223" s="16"/>
+      <c r="R223" s="16"/>
+      <c r="S223" s="16"/>
+      <c r="T223" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A224" s="7">
+        <v>223</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F224" s="8"/>
+      <c r="G224" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30"/>
+      <c r="K224" s="30"/>
+      <c r="L224" s="30"/>
+      <c r="M224" s="49" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
-        <v/>
-      </c>
-      <c r="N224" s="9" t="str" cm="1">
+        <v>conformance</v>
+      </c>
+      <c r="N224" s="49" t="str" cm="1">
         <f t="array" ref="N224">SECTION_NAME(B224)</f>
         <v/>
+      </c>
+      <c r="O224" s="16"/>
+      <c r="P224" s="16"/>
+      <c r="Q224" s="16"/>
+      <c r="R224" s="16"/>
+      <c r="S224" s="16"/>
+      <c r="T224" s="16" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="2:14" ht="16" x14ac:dyDescent="0.2">
@@ -11114,6 +11596,9 @@
     <hyperlink ref="B188" r:id="rId61" xr:uid="{0CF8476F-3EB0-4E4F-8427-B5593D7E7445}"/>
     <hyperlink ref="B160" r:id="rId62" location="updating-authorization-requests" xr:uid="{3D5A271C-1C5A-174B-BFE7-B13D790828C2}"/>
     <hyperlink ref="B84" r:id="rId63" location="prior-authorization-submission" xr:uid="{AC29C7DD-97E9-3944-AB1F-49A4A8ED6F5A}"/>
+    <hyperlink ref="B213" r:id="rId64" xr:uid="{94CD23A1-97BD-7B40-B486-86E941073FD1}"/>
+    <hyperlink ref="B214:B224" r:id="rId65" display="https://hl7.org/fhir/us/davinci-hrex/STU1/conformance.html" xr:uid="{E34E44FA-11CF-BE4D-AF14-8EE2BC19BC3D}"/>
+    <hyperlink ref="B220" r:id="rId66" xr:uid="{DB18FEC9-17CA-2E4C-8CE6-F72A11DD3204}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11123,19 +11608,19 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G212 G225:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D212 D225:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576 I2:I1048576</xm:sqref>
+          <xm:sqref>I225:I1048576 I2:I212 K2:K212 K225:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11159,7 +11644,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="48"/>
     </row>
@@ -11169,82 +11654,82 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -11275,19 +11760,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11295,13 +11780,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
         <v>330</v>
-      </c>
-      <c r="C2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -11321,13 +11806,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
@@ -11341,7 +11826,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -11355,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -11366,7 +11851,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -11376,12 +11861,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -11390,6 +11875,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -11643,19 +12141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11666,6 +12151,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FB330C-B068-4EE3-928A-A72A297ABA91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11685,24 +12188,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
-    <ds:schemaRef ds:uri="b7009bbd-f938-489b-a530-f05273710fff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>

--- a/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
+++ b/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstrassner/repo/inferno/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE072E9-5295-0B4D-9CFC-88C2A1595C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A9C5F3-75D1-B149-895F-D194756F9015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -789,9 +789,6 @@
     <t>Conformance*</t>
   </si>
   <si>
-    <t>Actor*</t>
-  </si>
-  <si>
     <t>Sub-Requirement(s)</t>
   </si>
   <si>
@@ -2493,6 +2490,9 @@
   </si>
   <si>
     <t>hl7.fhir.us.davinci-pas_2.0.1@214,217,219,221</t>
+  </si>
+  <si>
+    <t>Actors*</t>
   </si>
 </sst>
 </file>
@@ -2988,6 +2988,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3005,12 +3011,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3380,14 +3380,14 @@
       <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>339</v>
+      <c r="A4" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="39"/>
       <c r="C5" s="34"/>
     </row>
@@ -3399,17 +3399,17 @@
       <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -3435,10 +3435,10 @@
   <dimension ref="A1:AI341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3481,52 +3481,52 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="Y1" s="6"/>
     </row>
@@ -3535,23 +3535,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -3579,22 +3579,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="9" t="str" cm="1">
         <f t="array" ref="M3">PAGE_NAME(B3)</f>
@@ -3620,22 +3620,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="9" t="str" cm="1">
         <f t="array" ref="M4">PAGE_NAME(B4)</f>
@@ -3658,22 +3658,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="9" t="str" cm="1">
         <f t="array" ref="M5">PAGE_NAME(B5)</f>
@@ -3696,16 +3696,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>0</v>
@@ -3731,16 +3731,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
@@ -3766,16 +3766,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>0</v>
@@ -3802,16 +3802,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>0</v>
@@ -3830,16 +3830,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="b">
         <v>0</v>
@@ -3858,16 +3858,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>0</v>
@@ -3914,31 +3914,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="K13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="L13" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="9" t="str" cm="1">
         <f t="array" ref="M13">PAGE_NAME(B13)</f>
@@ -3954,31 +3954,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="K14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="L14" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="M14" s="9" t="str" cm="1">
         <f t="array" ref="M14">PAGE_NAME(B14)</f>
@@ -3994,31 +3994,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="M15" s="9" t="str" cm="1">
         <f t="array" ref="M15">PAGE_NAME(B15)</f>
@@ -4034,31 +4034,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="L16" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="M16" s="9" t="str" cm="1">
         <f t="array" ref="M16">PAGE_NAME(B16)</f>
@@ -4074,22 +4074,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="9" t="str" cm="1">
         <f t="array" ref="M17">PAGE_NAME(B17)</f>
@@ -4105,22 +4105,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G18" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="9" t="str" cm="1">
         <f t="array" ref="M18">PAGE_NAME(B18)</f>
@@ -4136,22 +4136,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" s="9" t="str" cm="1">
         <f t="array" ref="M19">PAGE_NAME(B19)</f>
@@ -4167,22 +4167,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G20" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="9" t="str" cm="1">
         <f t="array" ref="M20">PAGE_NAME(B20)</f>
@@ -4198,22 +4198,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G21" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="9" t="str" cm="1">
         <f t="array" ref="M21">PAGE_NAME(B21)</f>
@@ -4229,22 +4229,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="9" t="str" cm="1">
         <f t="array" ref="M22">PAGE_NAME(B22)</f>
@@ -4261,22 +4261,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="9" t="str" cm="1">
         <f t="array" ref="M23">PAGE_NAME(B23)</f>
@@ -4292,22 +4292,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24" s="9" t="str" cm="1">
         <f t="array" ref="M24">PAGE_NAME(B24)</f>
@@ -4323,22 +4323,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="9" t="str" cm="1">
         <f t="array" ref="M25">PAGE_NAME(B25)</f>
@@ -4354,22 +4354,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="9" t="str" cm="1">
         <f t="array" ref="M26">PAGE_NAME(B26)</f>
@@ -4385,22 +4385,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="9" t="str" cm="1">
         <f t="array" ref="M27">PAGE_NAME(B27)</f>
@@ -4416,22 +4416,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G28" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M28" s="9" t="str" cm="1">
         <f t="array" ref="M28">PAGE_NAME(B28)</f>
@@ -4447,22 +4447,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M29" s="9" t="str" cm="1">
         <f t="array" ref="M29">PAGE_NAME(B29)</f>
@@ -4478,22 +4478,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="9" t="str" cm="1">
         <f t="array" ref="M30">PAGE_NAME(B30)</f>
@@ -4509,22 +4509,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M31" s="9" t="str" cm="1">
         <f t="array" ref="M31">PAGE_NAME(B31)</f>
@@ -4535,7 +4535,7 @@
         <v/>
       </c>
       <c r="T31" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -4543,22 +4543,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G32" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M32" s="9" t="str" cm="1">
         <f t="array" ref="M32">PAGE_NAME(B32)</f>
@@ -4574,22 +4574,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M33" s="9" t="str" cm="1">
         <f t="array" ref="M33">PAGE_NAME(B33)</f>
@@ -4605,19 +4605,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="D34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F34" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
@@ -4667,16 +4667,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G36" s="7" t="b">
         <v>0</v>
@@ -4695,16 +4695,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G37" s="7" t="b">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>0</v>
@@ -4751,16 +4751,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>0</v>
@@ -4779,16 +4779,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
@@ -4807,16 +4807,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="7" t="b">
         <v>0</v>
@@ -4835,22 +4835,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M42" s="9" t="str" cm="1">
         <f t="array" ref="M42">PAGE_NAME(B42)</f>
@@ -4866,16 +4866,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G43" s="7" t="b">
         <v>0</v>
@@ -4894,22 +4894,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M44" s="9" t="str" cm="1">
         <f t="array" ref="M44">PAGE_NAME(B44)</f>
@@ -4925,16 +4925,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G45" s="7" t="b">
         <v>0</v>
@@ -4953,16 +4953,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="7" t="b">
         <v>0</v>
@@ -4981,16 +4981,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G47" s="7" t="b">
         <v>0</v>
@@ -5009,16 +5009,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
@@ -5037,16 +5037,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
@@ -5065,16 +5065,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>0</v>
@@ -5093,16 +5093,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>0</v>
@@ -5121,16 +5121,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" s="7" t="b">
         <v>0</v>
@@ -5149,16 +5149,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="7" t="b">
         <v>0</v>
@@ -5177,16 +5177,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>0</v>
@@ -5205,16 +5205,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="7" t="b">
         <v>0</v>
@@ -5233,16 +5233,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="7" t="b">
         <v>0</v>
@@ -5261,16 +5261,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -5292,16 +5292,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>integration-with-other-implementation-guides</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="68" x14ac:dyDescent="0.2">
@@ -5323,16 +5323,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
@@ -5351,16 +5351,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="7" t="b">
         <v>0</v>
@@ -5379,16 +5379,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61" s="7" t="b">
         <v>0</v>
@@ -5407,16 +5407,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" s="7" t="b">
         <v>0</v>
@@ -5435,16 +5435,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" s="7" t="b">
         <v>0</v>
@@ -5463,16 +5463,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G64" s="7" t="b">
         <v>0</v>
@@ -5491,16 +5491,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G65" s="7" t="b">
         <v>0</v>
@@ -5519,16 +5519,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" s="7" t="b">
         <v>0</v>
@@ -5547,22 +5547,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G67" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M67" s="9" t="str" cm="1">
         <f t="array" ref="M67">PAGE_NAME(B67)</f>
@@ -5578,22 +5578,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M68" s="9" t="str" cm="1">
         <f t="array" ref="M68">PAGE_NAME(B68)</f>
@@ -5609,22 +5609,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M69" s="9" t="str" cm="1">
         <f t="array" ref="M69">PAGE_NAME(B69)</f>
@@ -5640,22 +5640,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M70" s="9" t="str" cm="1">
         <f t="array" ref="M70">PAGE_NAME(B70)</f>
@@ -5671,16 +5671,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="D71" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" s="7" t="b">
         <v>0</v>
@@ -5699,16 +5699,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" s="7" t="b">
         <v>0</v>
@@ -5727,16 +5727,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G73" s="7" t="b">
         <v>0</v>
@@ -5755,16 +5755,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" s="7" t="b">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" s="7" t="b">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" s="7" t="b">
         <v>0</v>
@@ -5839,16 +5839,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77" s="7" t="b">
         <v>0</v>
@@ -5867,22 +5867,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M78" s="9" t="str" cm="1">
         <f t="array" ref="M78">PAGE_NAME(B78)</f>
@@ -5898,16 +5898,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" s="7" t="b">
         <v>0</v>
@@ -5926,16 +5926,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" s="7" t="b">
         <v>0</v>
@@ -5954,16 +5954,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" s="7" t="b">
         <v>0</v>
@@ -5982,16 +5982,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" s="7" t="b">
         <v>0</v>
@@ -6010,16 +6010,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" s="7" t="b">
         <v>0</v>
@@ -6038,16 +6038,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84" s="7" t="b">
         <v>0</v>
@@ -6066,16 +6066,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" s="7" t="b">
         <v>0</v>
@@ -6094,16 +6094,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" s="7" t="b">
         <v>0</v>
@@ -6122,16 +6122,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G87" s="7" t="b">
         <v>0</v>
@@ -6150,16 +6150,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88" s="7" t="b">
         <v>0</v>
@@ -6178,22 +6178,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M89" s="9" t="str" cm="1">
         <f t="array" ref="M89">PAGE_NAME(B89)</f>
@@ -6209,22 +6209,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M90" s="9" t="str" cm="1">
         <f t="array" ref="M90">PAGE_NAME(B90)</f>
@@ -6240,22 +6240,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M91" s="9" t="str" cm="1">
         <f t="array" ref="M91">PAGE_NAME(B91)</f>
@@ -6271,16 +6271,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G92" s="7" t="b">
         <v>0</v>
@@ -6299,16 +6299,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G93" s="7" t="b">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G94" s="7" t="b">
         <v>0</v>
@@ -6355,16 +6355,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95" s="7" t="b">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G96" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M96" s="9" t="str" cm="1">
         <f t="array" ref="M96">PAGE_NAME(B96)</f>
@@ -6414,32 +6414,32 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I97" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K97" s="30" t="s">
+      <c r="L97" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="L97" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="M97" s="9" t="str" cm="1">
         <f t="array" ref="M97">PAGE_NAME(B97)</f>
@@ -6455,22 +6455,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G98" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M98" s="9" t="str" cm="1">
         <f t="array" ref="M98">PAGE_NAME(B98)</f>
@@ -6486,16 +6486,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G99" s="7" t="b">
         <v>0</v>
@@ -6514,16 +6514,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="D100" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="G100" s="7" t="b">
         <v>0</v>
@@ -6542,16 +6542,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D101" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G101" s="7" t="b">
         <v>0</v>
@@ -6570,16 +6570,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D102" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G102" s="7" t="b">
         <v>0</v>
@@ -6598,22 +6598,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G103" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M103" s="9" t="str" cm="1">
         <f t="array" ref="M103">PAGE_NAME(B103)</f>
@@ -6629,22 +6629,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G104" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M104" s="9" t="str" cm="1">
         <f t="array" ref="M104">PAGE_NAME(B104)</f>
@@ -6660,22 +6660,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G105" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M105" s="9" t="str" cm="1">
         <f t="array" ref="M105">PAGE_NAME(B105)</f>
@@ -6691,22 +6691,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D106" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G106" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M106" s="9" t="str" cm="1">
         <f t="array" ref="M106">PAGE_NAME(B106)</f>
@@ -6722,22 +6722,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M107" s="9" t="str" cm="1">
         <f t="array" ref="M107">PAGE_NAME(B107)</f>
@@ -6753,16 +6753,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G108" s="7" t="b">
         <v>0</v>
@@ -6781,28 +6781,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J109" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E109" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J109" s="30" t="s">
-        <v>169</v>
-      </c>
       <c r="K109" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M109" s="9" t="str" cm="1">
         <f t="array" ref="M109">PAGE_NAME(B109)</f>
@@ -6818,28 +6818,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G110" s="7" t="b">
         <v>0</v>
       </c>
       <c r="I110" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J110" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K110" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M110" s="9" t="str" cm="1">
         <f t="array" ref="M110">PAGE_NAME(B110)</f>
@@ -6855,16 +6855,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D111" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E111" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G111" s="7" t="b">
         <v>0</v>
@@ -6883,22 +6883,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G112" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M112" s="9" t="str" cm="1">
         <f t="array" ref="M112">PAGE_NAME(B112)</f>
@@ -6914,22 +6914,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E113" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G113" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M113" s="9" t="str" cm="1">
         <f t="array" ref="M113">PAGE_NAME(B113)</f>
@@ -6945,22 +6945,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D114" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G114" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="102" x14ac:dyDescent="0.2">
@@ -6968,22 +6968,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E115" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G115" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M115" s="9" t="str" cm="1">
         <f t="array" ref="M115">PAGE_NAME(B115)</f>
@@ -6999,22 +6999,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G116" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M116" s="9" t="str" cm="1">
         <f t="array" ref="M116">PAGE_NAME(B116)</f>
@@ -7030,22 +7030,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="D117" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M117" s="9" t="str" cm="1">
         <f t="array" ref="M117">PAGE_NAME(B117)</f>
@@ -7061,22 +7061,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G118" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M118" s="9" t="str" cm="1">
         <f t="array" ref="M118">PAGE_NAME(B118)</f>
@@ -7092,13 +7092,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M119" s="9" t="str" cm="1">
         <f t="array" ref="M119">PAGE_NAME(B119)</f>
@@ -7109,7 +7109,7 @@
         <v>prior-authorization-workflow-diagrams</v>
       </c>
       <c r="T119" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -7117,16 +7117,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="D120" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120" s="7" t="b">
         <v>0</v>
@@ -7145,22 +7145,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M121" s="9" t="str" cm="1">
         <f t="array" ref="M121">PAGE_NAME(B121)</f>
@@ -7176,16 +7176,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" s="7" t="b">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123" s="7" t="b">
         <v>0</v>
@@ -7232,16 +7232,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124" s="7" t="b">
         <v>0</v>
@@ -7265,28 +7265,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L125" s="30" t="s">
         <v>194</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L125" s="30" t="s">
-        <v>195</v>
       </c>
       <c r="M125" s="9" t="str" cm="1">
         <f t="array" ref="M125">PAGE_NAME(B125)</f>
@@ -7302,16 +7302,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" s="7" t="b">
         <v>0</v>
@@ -7330,16 +7330,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" s="7" t="b">
         <v>0</v>
@@ -7358,16 +7358,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G128" s="7" t="b">
         <v>0</v>
@@ -7386,16 +7386,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129" s="7" t="b">
         <v>0</v>
@@ -7414,16 +7414,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E130" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G130" s="7" t="b">
         <v>0</v>
@@ -7442,16 +7442,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G131" s="7" t="b">
         <v>0</v>
@@ -7470,16 +7470,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G132" s="7" t="b">
         <v>0</v>
@@ -7498,31 +7498,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E133" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G133" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H133" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K133" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L133" s="30" t="s">
         <v>204</v>
-      </c>
-      <c r="I133" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K133" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L133" s="30" t="s">
-        <v>205</v>
       </c>
       <c r="M133" s="9" t="str" cm="1">
         <f t="array" ref="M133">PAGE_NAME(B133)</f>
@@ -7538,22 +7538,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D134" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E134" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G134" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M134" s="9" t="str" cm="1">
         <f t="array" ref="M134">PAGE_NAME(B134)</f>
@@ -7564,7 +7564,7 @@
         <v>prior-authorization-inquiries</v>
       </c>
       <c r="T134" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="136" x14ac:dyDescent="0.2">
@@ -7572,22 +7572,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E135" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H135" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M135" s="9" t="str" cm="1">
         <f t="array" ref="M135">PAGE_NAME(B135)</f>
@@ -7603,22 +7603,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M136" s="9" t="str" cm="1">
         <f t="array" ref="M136">PAGE_NAME(B136)</f>
@@ -7634,22 +7634,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="D137" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E137" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G137" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M137" s="9" t="str" cm="1">
         <f t="array" ref="M137">PAGE_NAME(B137)</f>
@@ -7665,16 +7665,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" s="7" t="b">
         <v>0</v>
@@ -7693,16 +7693,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D139" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E139" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G139" s="7" t="b">
         <v>0</v>
@@ -7721,22 +7721,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E140" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G140" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M140" s="9" t="str" cm="1">
         <f t="array" ref="M140">PAGE_NAME(B140)</f>
@@ -7752,16 +7752,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="D141" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141" s="7" t="b">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E142" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G142" s="7" t="b">
         <v>0</v>
@@ -7808,16 +7808,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G143" s="7" t="b">
         <v>0</v>
@@ -7836,16 +7836,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" s="7" t="b">
         <v>0</v>
@@ -7864,16 +7864,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145" s="7" t="b">
         <v>0</v>
@@ -7892,16 +7892,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D146" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E146" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G146" s="7" t="b">
         <v>0</v>
@@ -7920,16 +7920,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G147" s="7" t="b">
         <v>0</v>
@@ -7948,16 +7948,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" s="7" t="b">
         <v>0</v>
@@ -7976,16 +7976,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D149" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G149" s="7" t="b">
         <v>0</v>
@@ -8004,16 +8004,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G150" s="7" t="b">
         <v>0</v>
@@ -8032,16 +8032,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" s="7" t="b">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G152" s="7" t="b">
         <v>0</v>
@@ -8088,16 +8088,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D153" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G153" s="7" t="b">
         <v>0</v>
@@ -8116,16 +8116,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G154" s="7" t="b">
         <v>0</v>
@@ -8144,16 +8144,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="D155" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" s="7" t="b">
         <v>0</v>
@@ -8172,16 +8172,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D156" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G156" s="7" t="b">
         <v>0</v>
@@ -8200,16 +8200,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="D157" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157" s="7" t="b">
         <v>0</v>
@@ -8228,22 +8228,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H158" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M158" s="9" t="str" cm="1">
         <f t="array" ref="M158">PAGE_NAME(B158)</f>
@@ -8259,22 +8259,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G159" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H159" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M159" s="9" t="str" cm="1">
         <f t="array" ref="M159">PAGE_NAME(B159)</f>
@@ -8290,22 +8290,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H160" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8313,22 +8313,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G161" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M161" s="9" t="str" cm="1">
         <f t="array" ref="M161">PAGE_NAME(B161)</f>
@@ -8344,22 +8344,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G162" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8367,22 +8367,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G163" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H163" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8390,22 +8390,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G164" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8413,22 +8413,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G165" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -8436,22 +8436,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M166" s="9" t="str" cm="1">
         <f t="array" ref="M166">PAGE_NAME(B166)</f>
@@ -8467,22 +8467,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M167" s="9" t="str" cm="1">
         <f t="array" ref="M167">PAGE_NAME(B167)</f>
@@ -8498,22 +8498,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H168" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M168" s="9" t="str" cm="1">
         <f t="array" ref="M168">PAGE_NAME(B168)</f>
@@ -8529,22 +8529,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H169" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M169" s="9" t="str" cm="1">
         <f t="array" ref="M169">PAGE_NAME(B169)</f>
@@ -8560,22 +8560,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M170" s="9" t="str" cm="1">
         <f t="array" ref="M170">PAGE_NAME(B170)</f>
@@ -8591,22 +8591,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G171" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H171" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M171" s="9" t="str" cm="1">
         <f t="array" ref="M171">PAGE_NAME(B171)</f>
@@ -8622,22 +8622,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H172" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M172" s="9" t="str" cm="1">
         <f t="array" ref="M172">PAGE_NAME(B172)</f>
@@ -8653,22 +8653,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H173" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M173" s="9" t="str" cm="1">
         <f t="array" ref="M173">PAGE_NAME(B173)</f>
@@ -8684,22 +8684,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H174" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M174" s="9" t="str" cm="1">
         <f t="array" ref="M174">PAGE_NAME(B174)</f>
@@ -8715,22 +8715,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G175" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H175" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M175" s="9" t="str" cm="1">
         <f t="array" ref="M175">PAGE_NAME(B175)</f>
@@ -8746,22 +8746,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H176" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M176" s="9" t="str" cm="1">
         <f t="array" ref="M176">PAGE_NAME(B176)</f>
@@ -8777,22 +8777,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D177" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E177" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G177" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H177" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M177" s="9" t="str" cm="1">
         <f t="array" ref="M177">PAGE_NAME(B177)</f>
@@ -8808,22 +8808,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E178" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G178" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M178" s="9" t="str" cm="1">
         <f t="array" ref="M178">PAGE_NAME(B178)</f>
@@ -8839,22 +8839,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="D179" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M179" s="9" t="str" cm="1">
         <f t="array" ref="M179">PAGE_NAME(B179)</f>
@@ -8870,22 +8870,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G180" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H180" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M180" s="9" t="str" cm="1">
         <f t="array" ref="M180">PAGE_NAME(B180)</f>
@@ -8901,22 +8901,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D181" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E181" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G181" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H181" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M181" s="9" t="str" cm="1">
         <f t="array" ref="M181">PAGE_NAME(B181)</f>
@@ -8932,22 +8932,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D182" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E182" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G182" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H182" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M182" s="9" t="str" cm="1">
         <f t="array" ref="M182">PAGE_NAME(B182)</f>
@@ -8963,22 +8963,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D183" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E183" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G183" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H183" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M183" s="9" t="str" cm="1">
         <f t="array" ref="M183">PAGE_NAME(B183)</f>
@@ -8994,22 +8994,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D184" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E184" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G184" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H184" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M184" s="9" t="str" cm="1">
         <f t="array" ref="M184">PAGE_NAME(B184)</f>
@@ -9025,16 +9025,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185" s="7" t="b">
         <v>0</v>
@@ -9053,16 +9053,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D186" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E186" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G186" s="7" t="b">
         <v>0</v>
@@ -9081,16 +9081,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C187" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="D187" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187" s="7" t="b">
         <v>0</v>
@@ -9109,16 +9109,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" s="7" t="b">
         <v>0</v>
@@ -9137,16 +9137,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" s="7" t="b">
         <v>0</v>
@@ -9165,16 +9165,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D190" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E190" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G190" s="7" t="b">
         <v>0</v>
@@ -9193,16 +9193,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191" s="7" t="b">
         <v>0</v>
@@ -9221,31 +9221,31 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" s="7" t="b">
         <v>1</v>
       </c>
       <c r="H192" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="I192" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K192" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L192" s="30" t="s">
         <v>279</v>
-      </c>
-      <c r="I192" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K192" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L192" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="M192" s="9" t="str" cm="1">
         <f t="array" ref="M192">PAGE_NAME(B192)</f>
@@ -9261,16 +9261,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G193" s="7" t="b">
         <v>0</v>
@@ -9289,16 +9289,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" s="7" t="b">
         <v>0</v>
@@ -9317,16 +9317,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G195" s="7" t="b">
         <v>0</v>
@@ -9345,16 +9345,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G196" s="7" t="b">
         <v>0</v>
@@ -9373,16 +9373,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D197" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G197" s="7" t="b">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G198" s="7" t="b">
         <v>0</v>
@@ -9429,16 +9429,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D199" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E199" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G199" s="7" t="b">
         <v>0</v>
@@ -9457,22 +9457,22 @@
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="D200" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G200" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G200" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="M200" s="9" t="str" cm="1">
         <f t="array" ref="M200">PAGE_NAME(B200)</f>
@@ -9488,22 +9488,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="D201" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" s="16" t="s">
         <v>289</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G201" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" s="16" t="s">
-        <v>290</v>
       </c>
       <c r="M201" s="9" t="str" cm="1">
         <f t="array" ref="M201">PAGE_NAME(B201)</f>
@@ -9519,16 +9519,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="D202" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E202" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G202" s="7" t="b">
         <v>0</v>
@@ -9547,16 +9547,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C203" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="D203" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G203" s="7" t="b">
         <v>0</v>
@@ -9575,16 +9575,16 @@
         <v>203</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G204" s="7" t="b">
         <v>0</v>
@@ -9603,16 +9603,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205" s="7" t="b">
         <v>0</v>
@@ -9631,16 +9631,16 @@
         <v>205</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G206" s="7" t="b">
         <v>0</v>
@@ -9659,16 +9659,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G207" s="7" t="b">
         <v>0</v>
@@ -9687,16 +9687,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C208" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="D208" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G208" s="7" t="b">
         <v>0</v>
@@ -9715,16 +9715,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E209" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G209" s="7" t="b">
         <v>0</v>
@@ -9743,16 +9743,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D210" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E210" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G210" s="7" t="b">
         <v>0</v>
@@ -9771,16 +9771,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D211" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E211" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G211" s="7" t="b">
         <v>0</v>
@@ -9799,16 +9799,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="42" t="s">
         <v>29</v>
-      </c>
-      <c r="E212" s="42" t="s">
-        <v>30</v>
       </c>
       <c r="G212" s="7" t="b">
         <v>0</v>
@@ -9822,21 +9822,21 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="44" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>212</v>
       </c>
       <c r="B213" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C213" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>342</v>
-      </c>
       <c r="D213" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F213" s="8"/>
       <c r="G213" s="8" t="b">
@@ -9847,11 +9847,11 @@
       <c r="J213" s="30"/>
       <c r="K213" s="30"/>
       <c r="L213" s="30"/>
-      <c r="M213" s="49" t="str" cm="1">
+      <c r="M213" s="43" t="str" cm="1">
         <f t="array" ref="M213">PAGE_NAME(B213)</f>
         <v>conformance</v>
       </c>
-      <c r="N213" s="49" t="str" cm="1">
+      <c r="N213" s="43" t="str" cm="1">
         <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v/>
       </c>
@@ -9861,41 +9861,41 @@
       <c r="R213" s="16"/>
       <c r="S213" s="16"/>
       <c r="T213" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" s="50" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" s="44" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>213</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F214" s="8"/>
       <c r="G214" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I214" s="30"/>
       <c r="J214" s="30"/>
       <c r="K214" s="30"/>
       <c r="L214" s="30"/>
-      <c r="M214" s="49" t="str" cm="1">
+      <c r="M214" s="43" t="str" cm="1">
         <f t="array" ref="M214">PAGE_NAME(B214)</f>
         <v>conformance</v>
       </c>
-      <c r="N214" s="49" t="str" cm="1">
+      <c r="N214" s="43" t="str" cm="1">
         <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v/>
       </c>
@@ -9905,24 +9905,24 @@
       <c r="R214" s="16"/>
       <c r="S214" s="16"/>
       <c r="T214" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" s="50" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" s="44" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>214</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F215" s="8"/>
       <c r="G215" s="8" t="b">
@@ -9933,11 +9933,11 @@
       <c r="J215" s="30"/>
       <c r="K215" s="30"/>
       <c r="L215" s="30"/>
-      <c r="M215" s="49" t="str" cm="1">
+      <c r="M215" s="43" t="str" cm="1">
         <f t="array" ref="M215">PAGE_NAME(B215)</f>
         <v>conformance</v>
       </c>
-      <c r="N215" s="49" t="str" cm="1">
+      <c r="N215" s="43" t="str" cm="1">
         <f t="array" ref="N215">SECTION_NAME(B215)</f>
         <v/>
       </c>
@@ -9947,41 +9947,41 @@
       <c r="R215" s="16"/>
       <c r="S215" s="16"/>
       <c r="T215" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" s="50" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" s="44" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D216" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F216" s="8"/>
       <c r="G216" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H216" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I216" s="30"/>
       <c r="J216" s="30"/>
       <c r="K216" s="30"/>
       <c r="L216" s="30"/>
-      <c r="M216" s="49" t="str" cm="1">
+      <c r="M216" s="43" t="str" cm="1">
         <f t="array" ref="M216">PAGE_NAME(B216)</f>
         <v>conformance</v>
       </c>
-      <c r="N216" s="49" t="str" cm="1">
+      <c r="N216" s="43" t="str" cm="1">
         <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v/>
       </c>
@@ -9991,41 +9991,41 @@
       <c r="R216" s="16"/>
       <c r="S216" s="16"/>
       <c r="T216" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" s="50" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" s="44" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D217" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E217" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F217" s="8"/>
       <c r="G217" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H217" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I217" s="30"/>
       <c r="J217" s="30"/>
       <c r="K217" s="30"/>
       <c r="L217" s="30"/>
-      <c r="M217" s="49" t="str" cm="1">
+      <c r="M217" s="43" t="str" cm="1">
         <f t="array" ref="M217">PAGE_NAME(B217)</f>
         <v>conformance</v>
       </c>
-      <c r="N217" s="49" t="str" cm="1">
+      <c r="N217" s="43" t="str" cm="1">
         <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v/>
       </c>
@@ -10035,41 +10035,41 @@
       <c r="R217" s="16"/>
       <c r="S217" s="16"/>
       <c r="T217" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" s="44" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F218" s="8"/>
       <c r="G218" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H218" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I218" s="30"/>
       <c r="J218" s="30"/>
       <c r="K218" s="30"/>
       <c r="L218" s="30"/>
-      <c r="M218" s="49" t="str" cm="1">
+      <c r="M218" s="43" t="str" cm="1">
         <f t="array" ref="M218">PAGE_NAME(B218)</f>
         <v>conformance</v>
       </c>
-      <c r="N218" s="49" t="str" cm="1">
+      <c r="N218" s="43" t="str" cm="1">
         <f t="array" ref="N218">SECTION_NAME(B218)</f>
         <v/>
       </c>
@@ -10079,41 +10079,41 @@
       <c r="R218" s="16"/>
       <c r="S218" s="16"/>
       <c r="T218" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" s="50" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" s="44" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D219" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F219" s="8"/>
       <c r="G219" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H219" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I219" s="30"/>
       <c r="J219" s="30"/>
       <c r="K219" s="30"/>
       <c r="L219" s="30"/>
-      <c r="M219" s="49" t="str" cm="1">
+      <c r="M219" s="43" t="str" cm="1">
         <f t="array" ref="M219">PAGE_NAME(B219)</f>
         <v>conformance</v>
       </c>
-      <c r="N219" s="49" t="str" cm="1">
+      <c r="N219" s="43" t="str" cm="1">
         <f t="array" ref="N219">SECTION_NAME(B219)</f>
         <v/>
       </c>
@@ -10123,41 +10123,41 @@
       <c r="R219" s="16"/>
       <c r="S219" s="16"/>
       <c r="T219" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" s="50" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" s="44" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>219</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F220" s="8"/>
       <c r="G220" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H220" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I220" s="30"/>
       <c r="J220" s="30"/>
       <c r="K220" s="30"/>
       <c r="L220" s="30"/>
-      <c r="M220" s="49" t="str" cm="1">
+      <c r="M220" s="43" t="str" cm="1">
         <f t="array" ref="M220">PAGE_NAME(B220)</f>
         <v>conformance</v>
       </c>
-      <c r="N220" s="49" t="str" cm="1">
+      <c r="N220" s="43" t="str" cm="1">
         <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v/>
       </c>
@@ -10167,24 +10167,24 @@
       <c r="R220" s="16"/>
       <c r="S220" s="16"/>
       <c r="T220" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" s="50" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" s="44" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F221" s="8"/>
       <c r="G221" s="8" t="b">
@@ -10195,11 +10195,11 @@
       <c r="J221" s="30"/>
       <c r="K221" s="30"/>
       <c r="L221" s="30"/>
-      <c r="M221" s="49" t="str" cm="1">
+      <c r="M221" s="43" t="str" cm="1">
         <f t="array" ref="M221">PAGE_NAME(B221)</f>
         <v>conformance</v>
       </c>
-      <c r="N221" s="49" t="str" cm="1">
+      <c r="N221" s="43" t="str" cm="1">
         <f t="array" ref="N221">SECTION_NAME(B221)</f>
         <v/>
       </c>
@@ -10209,41 +10209,41 @@
       <c r="R221" s="16"/>
       <c r="S221" s="16"/>
       <c r="T221" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" s="50" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" s="44" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>221</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D222" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="F222" s="8"/>
       <c r="G222" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H222" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I222" s="30"/>
       <c r="J222" s="30"/>
       <c r="K222" s="30"/>
       <c r="L222" s="30"/>
-      <c r="M222" s="49" t="str" cm="1">
+      <c r="M222" s="43" t="str" cm="1">
         <f t="array" ref="M222">PAGE_NAME(B222)</f>
         <v>conformance</v>
       </c>
-      <c r="N222" s="49" t="str" cm="1">
+      <c r="N222" s="43" t="str" cm="1">
         <f t="array" ref="N222">SECTION_NAME(B222)</f>
         <v/>
       </c>
@@ -10253,47 +10253,47 @@
       <c r="R222" s="16"/>
       <c r="S222" s="16"/>
       <c r="T222" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" s="50" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" s="44" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>222</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F223" s="8"/>
       <c r="G223" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H223" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="I223" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J223" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="I223" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J223" s="30" t="s">
-        <v>360</v>
-      </c>
       <c r="K223" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L223" s="30"/>
-      <c r="M223" s="49" t="str" cm="1">
+      <c r="M223" s="43" t="str" cm="1">
         <f t="array" ref="M223">PAGE_NAME(B223)</f>
         <v>conformance</v>
       </c>
-      <c r="N223" s="49" t="str" cm="1">
+      <c r="N223" s="43" t="str" cm="1">
         <f t="array" ref="N223">SECTION_NAME(B223)</f>
         <v/>
       </c>
@@ -10303,41 +10303,41 @@
       <c r="R223" s="16"/>
       <c r="S223" s="16"/>
       <c r="T223" s="16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" s="50" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" s="44" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>223</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F224" s="8"/>
       <c r="G224" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H224" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I224" s="30"/>
       <c r="J224" s="30"/>
       <c r="K224" s="30"/>
       <c r="L224" s="30"/>
-      <c r="M224" s="49" t="str" cm="1">
+      <c r="M224" s="43" t="str" cm="1">
         <f t="array" ref="M224">PAGE_NAME(B224)</f>
         <v>conformance</v>
       </c>
-      <c r="N224" s="49" t="str" cm="1">
+      <c r="N224" s="43" t="str" cm="1">
         <f t="array" ref="N224">SECTION_NAME(B224)</f>
         <v/>
       </c>
@@ -10347,7 +10347,7 @@
       <c r="R224" s="16"/>
       <c r="S224" s="16"/>
       <c r="T224" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="2:14" ht="16" x14ac:dyDescent="0.2">
@@ -11643,93 +11643,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="48"/>
+      <c r="A1" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>306</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>319</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>321</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -11760,19 +11760,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>326</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11780,13 +11780,13 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>329</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -11806,67 +11806,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>331</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>332</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11888,6 +11888,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -12141,15 +12150,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -12169,6 +12169,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FB330C-B068-4EE3-928A-A72A297ABA91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12186,12 +12194,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
+++ b/lib/davinci_pas_test_kit/requirements/hl7.fhir.us.davinci-pas_2.0.1_requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tstrassner/repo/inferno/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/davinci-pas-test-kit/lib/davinci_pas_test_kit/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A9C5F3-75D1-B149-895F-D194756F9015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A123A-8F45-D741-85B2-A4C53BD36380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="376">
   <si>
     <r>
       <rPr>
@@ -2493,6 +2493,36 @@
   </si>
   <si>
     <t>Actors*</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.subscriptions_1.1.0#Client</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.subscriptions_1.1.0#Server</t>
+  </si>
+  <si>
+    <t>sub-requirements: all client subscription requirements are relevant, some are optional, so PAS clients won't be expected to support them all</t>
+  </si>
+  <si>
+    <t>sub-requirements: all server subscription requirements are relevant, some are optional, so PAS server won't be expected to support them all</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.subscriptions_1.1.0@40-42</t>
+  </si>
+  <si>
+    <t>sub-requirements: no explicit PAS client id-only requirements</t>
+  </si>
+  <si>
+    <t>sub-requirements: no explicit PAS client full-resource requirements</t>
+  </si>
+  <si>
+    <t>hl7.fhir.uv.subscriptions_1.1.0@43-45</t>
+  </si>
+  <si>
+    <t>sub-requirements: server id-only requirements</t>
+  </si>
+  <si>
+    <t>sub-requirements: server full-resource requirements</t>
   </si>
 </sst>
 </file>
@@ -3435,10 +3465,10 @@
   <dimension ref="A1:AI341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="S140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T149" sqref="T149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7763,6 +7793,9 @@
       <c r="E141" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="F141" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="G141" s="7" t="b">
         <v>0</v>
       </c>
@@ -7774,6 +7807,9 @@
         <f t="array" ref="N141">SECTION_NAME(B141)</f>
         <v>subscription</v>
       </c>
+      <c r="T141" s="16" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="142" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
@@ -7791,6 +7827,9 @@
       <c r="E142" s="42" t="s">
         <v>29</v>
       </c>
+      <c r="F142" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="G142" s="7" t="b">
         <v>0</v>
       </c>
@@ -7802,6 +7841,9 @@
         <f t="array" ref="N142">SECTION_NAME(B142)</f>
         <v>subscription</v>
       </c>
+      <c r="T142" s="16" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="143" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
@@ -7859,7 +7901,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -7886,8 +7928,11 @@
         <f t="array" ref="N145">SECTION_NAME(B145)</f>
         <v>subscription</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="T145" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -7902,6 +7947,9 @@
       </c>
       <c r="E146" s="42" t="s">
         <v>29</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="G146" s="7" t="b">
         <v>0</v>
@@ -7914,8 +7962,11 @@
         <f t="array" ref="N146">SECTION_NAME(B146)</f>
         <v>subscription</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="T146" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -7942,8 +7993,11 @@
         <f t="array" ref="N147">SECTION_NAME(B147)</f>
         <v>subscription</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="T147" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -7958,6 +8012,9 @@
       </c>
       <c r="E148" s="42" t="s">
         <v>29</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="G148" s="7" t="b">
         <v>0</v>
@@ -7970,8 +8027,11 @@
         <f t="array" ref="N148">SECTION_NAME(B148)</f>
         <v>subscription</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="T148" s="16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -7999,7 +8059,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -8027,7 +8087,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -8055,7 +8115,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -8083,7 +8143,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -8111,7 +8171,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -8139,7 +8199,7 @@
         <v>subscription</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -8167,7 +8227,7 @@
         <v>checking-status</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -8195,7 +8255,7 @@
         <v>checking-status</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -8223,7 +8283,7 @@
         <v>updating-authorization-requests</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -8254,7 +8314,7 @@
         <v>updating-authorization-requests</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -8285,7 +8345,7 @@
         <v>updating-authorization-requests</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -11888,15 +11948,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC335ED7BB179244BF94A0DFE64544DC" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a0f66abe5d2a0564332877ab55d3f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eebd8b74-b9de-41b2-9247-c010c4973c2b" xmlns:ns3="b7009bbd-f938-489b-a530-f05273710fff" xmlns:ns4="b5a44311-ed64-4a72-909f-c9dc6973bde2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec7ca2ee893ff8a0f61d4046c6461645" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
@@ -12150,6 +12201,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
@@ -12169,14 +12229,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FB330C-B068-4EE3-928A-A72A297ABA91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12194,4 +12246,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>